--- a/Introductory Slides and KiwiSDR Log/Ham Radio SSB Log.xlsx
+++ b/Introductory Slides and KiwiSDR Log/Ham Radio SSB Log.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/r01344106/Desktop/Amateur Radio Space Weather Paper Project/Project Description/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ARROW\w2naf\code\ENGR-150-Paper\Introductory Slides and KiwiSDR Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13027E93-E9BA-4747-AFB4-01D315F2B868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05C554B-6413-41FB-9E39-45082B4E8417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="32540" windowHeight="20500" xr2:uid="{6993C6BB-C24C-2A49-B680-DBDC23A5E6C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6993C6BB-C24C-2A49-B680-DBDC23A5E6C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$22</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -676,23 +679,23 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="114" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="9" width="33.33203125" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" customWidth="1"/>
+    <col min="8" max="9" width="33.375" customWidth="1"/>
+    <col min="10" max="10" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -706,7 +709,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -718,7 +721,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="151" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="150.94999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>11</v>
@@ -732,7 +735,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -744,7 +747,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="8" t="s">
         <v>3</v>
@@ -758,7 +761,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -770,7 +773,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -800,7 +803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -814,7 +817,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -828,7 +831,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -842,7 +845,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -856,7 +859,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -870,7 +873,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -884,7 +887,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -898,7 +901,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -912,7 +915,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>9</v>
       </c>
@@ -926,7 +929,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>10</v>
       </c>
@@ -940,7 +943,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>11</v>
       </c>
@@ -954,7 +957,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>12</v>
       </c>
@@ -968,7 +971,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>13</v>
       </c>
@@ -982,7 +985,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>14</v>
       </c>
@@ -996,7 +999,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>15</v>
       </c>
@@ -1018,7 +1021,7 @@
     <mergeCell ref="F5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="58" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>